--- a/05_Win32Api/019 加壳项目(傀儡进程).xlsx
+++ b/05_Win32Api/019 加壳项目(傀儡进程).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\05_Win32Api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC55B78C-DA99-47E5-8A32-C252A1CBAFFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AB587A-451C-44D8-B401-AD5B4FB8C616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="项目流程" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
   <si>
     <t>1、加壳程序的编写</t>
   </si>
@@ -222,6 +222,14 @@
   </si>
   <si>
     <t xml:space="preserve">       ① 内核函数需要使用函数指针调用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       ③ WriteFile、ReadFile 中 bufferSize 不能越界</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        win7中 lpNumberOfBytes... 参数不能为NULL</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -229,7 +237,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -257,6 +265,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -323,7 +337,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -355,6 +369,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1051,10 +1068,10 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="B2:N21"/>
+  <dimension ref="B2:N26"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1167,7 +1184,7 @@
     </row>
     <row r="20" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E20" s="8" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
@@ -1180,7 +1197,9 @@
       <c r="N20" s="8"/>
     </row>
     <row r="21" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E21" s="8"/>
+      <c r="E21" s="8" t="s">
+        <v>66</v>
+      </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
@@ -1191,6 +1210,35 @@
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
     </row>
+    <row r="22" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E22" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+    </row>
+    <row r="23" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+    </row>
+    <row r="26" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E26" s="11"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -1199,7 +1247,7 @@
     <hyperlink ref="E17:H17" location="'02'!C20" display="       ① 内核函数需要使用函数指针调用" xr:uid="{BC64A52D-4451-430E-8BBE-949575F2DD68}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -1582,7 +1630,7 @@
   </sheetPr>
   <dimension ref="B4:J69"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A21" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>

--- a/05_Win32Api/019 加壳项目(傀儡进程).xlsx
+++ b/05_Win32Api/019 加壳项目(傀儡进程).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\05_Win32Api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AB587A-451C-44D8-B401-AD5B4FB8C616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705832E9-EDAA-4CEB-9920-18A4B27BABDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -189,9 +189,6 @@
     <t>12、终止外壳程序，解壳过程结束.</t>
   </si>
   <si>
-    <t>傀儡进程</t>
-  </si>
-  <si>
     <t xml:space="preserve">    /* ***傀儡进程*** */</t>
   </si>
   <si>
@@ -230,6 +227,10 @@
   </si>
   <si>
     <t xml:space="preserve">        win7中 lpNumberOfBytes... 参数不能为NULL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>傀儡进程(Process hollowing、进程镂空)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -237,7 +238,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -271,6 +272,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -359,9 +367,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -372,6 +377,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1070,15 +1078,15 @@
   </sheetPr>
   <dimension ref="B2:N26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E2" s="7" t="s">
-        <v>55</v>
+    <row r="2" spans="2:14" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="E2" s="11" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
@@ -1113,131 +1121,131 @@
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E16" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E16" s="8" t="s">
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+    </row>
+    <row r="17" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E17" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+    </row>
+    <row r="18" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E18" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+    </row>
+    <row r="19" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E19" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+    </row>
+    <row r="20" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E20" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+    </row>
+    <row r="21" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E21" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+    </row>
+    <row r="22" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E22" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-    </row>
-    <row r="17" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E17" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-    </row>
-    <row r="18" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E18" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-    </row>
-    <row r="19" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E19" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-    </row>
-    <row r="20" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E20" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-    </row>
-    <row r="21" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E21" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-    </row>
-    <row r="22" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E22" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
     </row>
     <row r="23" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
     </row>
     <row r="26" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E26" s="11"/>
+      <c r="E26" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1677,37 +1685,37 @@
       </c>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8"/>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8"/>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C22" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="9"/>
-    </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C21" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
-    </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C22" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8"/>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C24" t="s">

--- a/05_Win32Api/019 加壳项目(傀儡进程).xlsx
+++ b/05_Win32Api/019 加壳项目(傀儡进程).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\05_Win32Api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705832E9-EDAA-4CEB-9920-18A4B27BABDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A46DD4-E1E7-4956-B906-6400950F52FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -198,10 +198,6 @@
     <t xml:space="preserve">    */</t>
   </si>
   <si>
-    <t xml:space="preserve">        比较老的32位程序 作为壳源时，可以实现，此时就需要shellcode 来实现解壳。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">    无法从头文件导入，需要从ntdll.dll加载，并使用函数指针) </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -214,10 +210,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">       ② 将msvs 编译的程序作为壳源，在执行傀儡进程时报错 0xc0000005 访问错误，</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">       ① 内核函数需要使用函数指针调用</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -231,6 +223,14 @@
   </si>
   <si>
     <t>傀儡进程(Process hollowing、进程镂空)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       ② ***取消 勾选 壳源的可选PE头 dll characteristic 中 DLL 可以在加载时重定位***</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">          GetOptionalHeadersPtr(lpShellFileBuffer)[0].DllCharacteristics &amp;= 0xAF80;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -401,6 +401,55 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>76242</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45CD57BA-A2EB-4CD5-B361-C7A329E363C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9235440" y="853440"/>
+          <a:ext cx="3871002" cy="4023360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1076,20 +1125,20 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="B2:N26"/>
+  <dimension ref="B2:M27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:14" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="E2" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
@@ -1097,7 +1146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
@@ -1105,25 +1154,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E15" s="7" t="s">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D15" s="7" t="s">
         <v>55</v>
       </c>
+      <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -1132,12 +1182,12 @@
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E16" s="7" t="s">
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D16" s="7" t="s">
         <v>56</v>
       </c>
+      <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -1146,26 +1196,26 @@
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-    </row>
-    <row r="17" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E17" s="9" t="s">
-        <v>63</v>
-      </c>
+    </row>
+    <row r="17" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D17" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
+      <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-    </row>
-    <row r="18" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E18" s="7" t="s">
-        <v>62</v>
-      </c>
+    </row>
+    <row r="18" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D18" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -1174,12 +1224,12 @@
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-    </row>
-    <row r="19" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E19" s="7" t="s">
-        <v>58</v>
-      </c>
+    </row>
+    <row r="19" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D19" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -1188,12 +1238,10 @@
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-    </row>
-    <row r="20" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E20" s="7" t="s">
-        <v>64</v>
-      </c>
+    </row>
+    <row r="20" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -1202,12 +1250,12 @@
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-    </row>
-    <row r="21" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E21" s="7" t="s">
-        <v>65</v>
-      </c>
+    </row>
+    <row r="21" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
@@ -1216,12 +1264,12 @@
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-    </row>
-    <row r="22" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E22" s="7" t="s">
-        <v>57</v>
-      </c>
+    </row>
+    <row r="22" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
@@ -1230,9 +1278,11 @@
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-    </row>
-    <row r="23" spans="5:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D23" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
@@ -1242,21 +1292,33 @@
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-    </row>
-    <row r="26" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E26" s="10"/>
+    </row>
+    <row r="24" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+    </row>
+    <row r="27" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="E27" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B4" location="'01'!A1" display="1、加壳程序的编写" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="B6" location="'02'!A1" display="2、解壳过程的编写" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="E17:H17" location="'02'!C20" display="       ① 内核函数需要使用函数指针调用" xr:uid="{BC64A52D-4451-430E-8BBE-949575F2DD68}"/>
+    <hyperlink ref="D17:G17" location="'02'!C20" display="       ① 内核函数需要使用函数指针调用" xr:uid="{BC64A52D-4451-430E-8BBE-949575F2DD68}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1686,7 +1748,7 @@
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C20" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -1697,7 +1759,7 @@
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
@@ -1708,7 +1770,7 @@
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C22" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>

--- a/05_Win32Api/019 加壳项目(傀儡进程).xlsx
+++ b/05_Win32Api/019 加壳项目(傀儡进程).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\05_Win32Api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A46DD4-E1E7-4956-B906-6400950F52FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4ABDF06-BB3C-41A9-81BD-1DB6EF8A66D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="项目流程" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="73">
   <si>
     <t>1、加壳程序的编写</t>
   </si>
@@ -231,6 +231,30 @@
   </si>
   <si>
     <t xml:space="preserve">          GetOptionalHeadersPtr(lpShellFileBuffer)[0].DllCharacteristics &amp;= 0xAF80;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>x86:</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   eax=imgbase</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   [ebx+8]=oep</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>x64:</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   rcx=imgbase</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   [rdx+8*2]=oep</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -238,7 +262,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -266,12 +290,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -345,7 +363,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -377,9 +395,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1125,16 +1140,16 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="B2:M27"/>
+  <dimension ref="B2:M30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N32" sqref="N25:N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:13" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1305,8 +1320,95 @@
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
     </row>
+    <row r="25" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D25" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+    </row>
+    <row r="26" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+    </row>
     <row r="27" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="E27" s="10"/>
+      <c r="D27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+    </row>
+    <row r="28" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+    </row>
+    <row r="29" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D29" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+    </row>
+    <row r="30" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1329,7 +1431,7 @@
   </sheetPr>
   <dimension ref="B4:I168"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F19" sqref="F19:G25"/>
     </sheetView>
   </sheetViews>
@@ -1698,10 +1800,10 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="B4:J69"/>
+  <dimension ref="B4:O69"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A21" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView showGridLines="0" topLeftCell="A49" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1866,65 +1968,146 @@
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="E49" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="E51" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
       <c r="E53" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
       <c r="E55" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
       <c r="E57" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
       <c r="E59" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E61" t="s">
+    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E61" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E63" t="s">
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="7"/>
+      <c r="O61" s="7"/>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="7"/>
+      <c r="O62" s="7"/>
+    </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E63" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E65" t="s">
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L63" s="7"/>
+      <c r="M63" s="7"/>
+      <c r="N63" s="7"/>
+      <c r="O63" s="7"/>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L64" s="7"/>
+      <c r="M64" s="7"/>
+      <c r="N64" s="7"/>
+      <c r="O64" s="7"/>
+    </row>
+    <row r="65" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E65" s="7" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
+      <c r="N65" s="7"/>
+      <c r="O65" s="7"/>
+    </row>
+    <row r="66" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L66" s="7"/>
+      <c r="M66" s="7"/>
+      <c r="N66" s="7"/>
+      <c r="O66" s="7"/>
+    </row>
+    <row r="67" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E67" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E69" t="s">
         <v>54</v>
       </c>
@@ -1932,6 +2115,6 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>